--- a/ImprotyokaluPakki.xlsx
+++ b/ImprotyokaluPakki.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="466"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="466" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="warmups" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="87">
   <si>
     <t>Nimi</t>
   </si>
@@ -278,12 +278,21 @@
   </si>
   <si>
     <t>warmups</t>
+  </si>
+  <si>
+    <t>musical</t>
+  </si>
+  <si>
+    <t>Sanaoksennus kaksintaistelu</t>
+  </si>
+  <si>
+    <t>Epäassosatiiviset sanat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -828,11 +837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1042,34 @@
         <v>83</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1045,11 +1082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1322,10 +1359,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1499,11 +1536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1654,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
@@ -1639,9 +1678,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+    <row r="19" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
   </sheetData>
@@ -1656,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1692,7 +1735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1842,7 +1885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
